--- a/document/教室卫生值日表.xlsx
+++ b/document/教室卫生值日表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>教学楼卫生工值日表</t>
   </si>
@@ -52,6 +52,9 @@
     <t>闫姝莉</t>
   </si>
   <si>
+    <t>刘轩睿</t>
+  </si>
+  <si>
     <t>周三\三组</t>
   </si>
   <si>
@@ -118,7 +121,7 @@
     <t>何雨秋</t>
   </si>
   <si>
-    <t>刘轩睿</t>
+    <t>刘佳树</t>
   </si>
   <si>
     <t>备注</t>
@@ -153,7 +156,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,14 +193,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +262,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,106 +298,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,6 +619,30 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,11 +664,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,24 +695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -696,24 +712,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,19 +738,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,116 +759,116 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,6 +896,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1226,7 +1232,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L5"/>
+      <selection activeCell="I7" sqref="I7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1294,114 +1300,116 @@
         <v>11</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="1"/>
+      <c r="I7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="9"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1413,11 +1421,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1429,11 +1437,11 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="12"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1445,11 +1453,11 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="12"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1461,7 +1469,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="13"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8"/>

--- a/document/教室卫生值日表.xlsx
+++ b/document/教室卫生值日表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaot\Desktop\summer_learning\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B484A5B9-CB7B-4AFE-A802-57CFDE892A10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810C345C-35A0-423E-AC06-589F85DE96A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>教学楼卫生工值日表</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>张亚军</t>
-  </si>
-  <si>
-    <t>程向东</t>
-  </si>
-  <si>
-    <t>刘志华</t>
   </si>
   <si>
     <t>邵馨冉</t>
@@ -138,6 +132,10 @@
   </si>
   <si>
     <t>李玉莹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘志华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -297,13 +295,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,242 +630,240 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:L7"/>
+      <selection activeCell="A11" sqref="A11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1017,25 +1027,13 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C7:D7"/>
@@ -1049,15 +1047,27 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/教室卫生值日表.xlsx
+++ b/document/教室卫生值日表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaot\Desktop\summer_learning\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810C345C-35A0-423E-AC06-589F85DE96A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36130F47-EB2C-4636-B16A-ABD1A341D031}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -295,61 +295,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -630,240 +616,240 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:L11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="14"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1027,32 +1013,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -1061,13 +1031,29 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
